--- a/eg3_time.xlsx
+++ b/eg3_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/CBF-BnB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0F455E-DAE9-C943-A9AC-6CAF2BD1EE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E459846E-D88F-D042-8613-53608F94CEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4220" windowWidth="34560" windowHeight="21580" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26620" xr2:uid="{E6F8C12D-1DBD-D447-8BFA-CD4A720C84FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="37" r:id="rId1"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="182" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:G16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,10 +579,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4614.7365472316696</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.3312749862670898E-2</v>
+        <v>8.2356214523315402E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.45095300674438399</v>
+        <v>0.35916709899902299</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3234.07338047027</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -641,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.6253643035888602E-2</v>
+        <v>8.1800460815429604E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.38302421569824202</v>
+        <v>0.40521907806396401</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -673,10 +673,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>11777.2603535652</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.2340240478515597E-2</v>
+        <v>8.8824987411498996E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.38713788986205999</v>
+        <v>0.35019421577453602</v>
       </c>
       <c r="N4">
         <v>200</v>
@@ -720,10 +720,10 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9162.8090546131098</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.3587646484375E-2</v>
+        <v>8.2945108413696206E-2</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.39841556549072199</v>
+        <v>0.43378877639770502</v>
       </c>
       <c r="N5">
         <v>300</v>
@@ -1216,11 +1216,11 @@
       </c>
       <c r="B17">
         <f ca="1">AVERAGE(OFFSET(B$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0</v>
-      </c>
-      <c r="C17" t="e" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($C$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="C17" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($C$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($B$2,(ROW()-$A$15)*4,0,4,1))/3600</f>
+        <v>1.9992277316583504</v>
       </c>
       <c r="D17">
         <f ca="1">AVERAGE(OFFSET(D$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G17" cm="1">
         <f t="array" aca="1" ref="G17" ca="1">SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($G$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($F$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>8.3873569965362521E-2</v>
+        <v>8.3981692790985052E-2</v>
       </c>
       <c r="H17">
         <f ca="1">AVERAGE(OFFSET(H$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="M17" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($M$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($L$2,(ROW()-$A$15)*4,0,4,1))</f>
-        <v>0.40488266944885204</v>
+        <v>0.38709229230880704</v>
       </c>
       <c r="N17">
         <f ca="1">AVERAGE(OFFSET(N$2,(ROW()-$A$15)*4,0,4,1))</f>
@@ -1270,14 +1270,14 @@
         <f t="array" aca="1" ref="O17" ca="1">SUM(OFFSET($N$2,(ROW()-$A$15)*4,0,4,1)*OFFSET($O$2,(ROW()-$A$15)*4,0,4,1))/SUM(OFFSET($N$2,(ROW()-$A$15)*4,0,4,1))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="P17" t="e" cm="1">
+      <c r="P17" cm="1">
         <f t="array" aca="1" ref="P17" ca="1">STDEV(
   IF(
      OFFSET($B$2, (ROW()-$A$15)*4, 0, 4, 1)&lt;&gt;0,
      OFFSET($C$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
-)</f>
-        <v>#DIV/0!</v>
+)/3600</f>
+        <v>1.10200040101525</v>
       </c>
       <c r="Q17" cm="1">
         <f t="array" aca="1" ref="Q17" ca="1">STDEV(
@@ -1295,7 +1295,7 @@
      OFFSET($G$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>1.6745266555896487E-3</v>
+        <v>3.262512451173709E-3</v>
       </c>
       <c r="S17" t="e" cm="1">
         <f t="array" aca="1" ref="S17" ca="1">STDEV(
@@ -1322,7 +1322,7 @@
      OFFSET($M$2, (ROW()-$A$15)*4, 0, 4, 1)
   )
 )</f>
-        <v>3.1395162127737304E-2</v>
+        <v>3.9371844683715261E-2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
